--- a/public/template-excel/keuanganhaji/pengelolaan/sukuk_korporasi.xlsx
+++ b/public/template-excel/keuanganhaji/pengelolaan/sukuk_korporasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAMMING\BPKH\sampel data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\keuanganhaji\pengelolaan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48CAAF8-9D60-423F-BC31-937926CBB484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BDE68-4252-4D91-B4AA-E04837D09E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>TOTAL</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>April</t>
+  </si>
+  <si>
+    <t>Nilai</t>
   </si>
 </sst>
 </file>
@@ -75,7 +78,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -148,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,6 +174,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -186,13 +202,13 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,8 +219,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
@@ -554,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +590,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -579,14 +600,17 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9">
+      <c r="F1" s="9">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -601,7 +625,7 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -614,9 +638,9 @@
       <c r="D3" s="5">
         <v>34550000001</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -629,9 +653,9 @@
       <c r="D4" s="5">
         <v>5555555</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>

--- a/public/template-excel/keuanganhaji/pengelolaan/sukuk_korporasi.xlsx
+++ b/public/template-excel/keuanganhaji/pengelolaan/sukuk_korporasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\keuanganhaji\pengelolaan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BDE68-4252-4D91-B4AA-E04837D09E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2131AB92-3225-4170-A925-2147CF0DC28B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
     <t>April</t>
   </si>
   <si>
-    <t>Nilai</t>
+    <t>Nominal</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
